--- a/Source/Excel/dialog.xlsx
+++ b/Source/Excel/dialog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71733DB-AF18-4596-84CA-4A6C7BDC5FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FF7CF-6F9C-460F-94D8-9B38B55FBE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{94EACFC6-7F87-409C-8048-A123FEEB8B02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 对话
+2 选项
+3 玩家
+4 特殊</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>慢着，杀我可以，但先得说明白，我是死在谁手上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,11 +184,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>options</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬无命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翘二郎腿的女人,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧身微笑,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +240,21 @@
       <color rgb="FF191B1F"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,12 +303,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,20 +597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="72.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="123.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -540,98 +617,95 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
@@ -639,405 +713,381 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
         <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
         <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
         <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
         <v>11</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
         <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
         <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
         <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
         <v>15</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
         <v>16</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
         <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
         <v>18</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
         <v>19</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
         <v>21</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1">
         <v>23</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source/Excel/dialog.xlsx
+++ b/Source/Excel/dialog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108FF7CF-6F9C-460F-94D8-9B38B55FBE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C0D5F1-D0FE-4B9F-8A85-36C080A9AF1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,30 @@
   </si>
   <si>
     <t>侧身微笑,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一句</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,455 +656,475 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
         <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
         <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
         <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
         <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
         <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
         <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
         <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
         <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
         <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
         <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
         <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
         <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
         <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
         <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
         <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
         <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
         <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="1">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="1">
+      <c r="E27" s="7"/>
+      <c r="F27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
